--- a/Metricas/Dezembro.xlsx
+++ b/Metricas/Dezembro.xlsx
@@ -1050,7 +1050,9 @@
       <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="24" t="n"/>
+      <c r="D19" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" s="24" t="n">
         <v>0</v>
       </c>
@@ -1067,7 +1069,9 @@
       <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="20" t="n"/>
+      <c r="D20" s="20" t="n">
+        <v>1568</v>
+      </c>
       <c r="E20" s="20" t="n">
         <v>1973</v>
       </c>
@@ -1084,7 +1088,9 @@
       <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="20" t="n"/>
+      <c r="D21" s="20" t="n">
+        <v>460</v>
+      </c>
       <c r="E21" s="20" t="n">
         <v>564</v>
       </c>
@@ -1101,7 +1107,9 @@
       <c r="C22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="20" t="n"/>
+      <c r="D22" s="20" t="n">
+        <v>1108</v>
+      </c>
       <c r="E22" s="20" t="n">
         <v>1409</v>
       </c>
@@ -1116,7 +1124,9 @@
       <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="20" t="n"/>
+      <c r="D23" s="20" t="n">
+        <v>2068</v>
+      </c>
       <c r="E23" s="20" t="n">
         <v>2524</v>
       </c>
@@ -1976,7 +1986,7 @@
         <v>29</v>
       </c>
       <c r="D68" s="20" t="n">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="E68" s="20" t="n">
         <v>0</v>

--- a/Metricas/Dezembro.xlsx
+++ b/Metricas/Dezembro.xlsx
@@ -956,7 +956,9 @@
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="20" t="n"/>
+      <c r="D12" s="20" t="n">
+        <v>8</v>
+      </c>
       <c r="E12" s="20" t="n">
         <v>26</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>29</v>
       </c>
       <c r="D68" s="20" t="n">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="E68" s="20" t="n">
         <v>0</v>

--- a/Metricas/Dezembro.xlsx
+++ b/Metricas/Dezembro.xlsx
@@ -1153,7 +1153,9 @@
       <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="24" t="n"/>
+      <c r="D25" s="24" t="n">
+        <v>0</v>
+      </c>
       <c r="E25" s="24" t="n">
         <v>0</v>
       </c>
@@ -1988,7 +1990,7 @@
         <v>29</v>
       </c>
       <c r="D68" s="20" t="n">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="E68" s="20" t="n">
         <v>0</v>

--- a/Metricas/Dezembro.xlsx
+++ b/Metricas/Dezembro.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedroenriqueandrade/Desktop/python_projects/Metricas/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="15860" windowWidth="28800" xWindow="0" yWindow="460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="150001" concurrentCalc="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="91">
   <si>
     <t>DATA QUE FOI PREENCHIDO</t>
   </si>
@@ -284,83 +297,86 @@
   </si>
   <si>
     <t>Média de Visualizações</t>
+  </si>
+  <si>
+    <t>Quinta-Feira</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-" numFmtId="164"/>
-    <numFmt formatCode="h:mm;@" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="0"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="0"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="11"/>
-      <sz val="12"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -427,7 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3999755851924192"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,94 +457,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="6">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="5" name="Percent" xfId="1"/>
-    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
-    <cellStyle builtinId="4" name="Currency" xfId="4"/>
+  <cellStyles count="4">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -794,31 +814,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView showRuler="0" tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="94" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="24"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="42.83203125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" width="13.5"/>
-    <col customWidth="1" max="6" min="6" width="13.5"/>
-    <col customWidth="1" max="8" min="8" width="15.6640625"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="n"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
@@ -832,837 +848,860 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="n"/>
-      <c r="D2" s="20" t="n"/>
-      <c r="E2" s="20" t="n"/>
-      <c r="F2" s="21" t="n"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="4" t="n"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20" t="n"/>
-      <c r="E3" s="20" t="n">
+      <c r="D3" s="20">
+        <v>1622</v>
+      </c>
+      <c r="E3" s="20">
         <v>1528</v>
       </c>
       <c r="F3" s="21">
         <f>(D3-E3)/E3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="4" t="n"/>
+        <v>6.1518324607329845E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20" t="n"/>
-      <c r="E4" s="20" t="n">
+      <c r="D4" s="20">
+        <v>2455</v>
+      </c>
+      <c r="E4" s="20">
         <v>2352</v>
       </c>
       <c r="F4" s="21">
         <f>(D4-E4)/E4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="4" t="n"/>
+        <v>4.3792517006802721E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" t="n"/>
-      <c r="E5" s="20" t="n">
+      <c r="D5" s="20">
+        <v>79</v>
+      </c>
+      <c r="E5" s="20">
         <v>78</v>
       </c>
       <c r="F5" s="21">
         <f>(D5-E5)/E5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="4" t="n"/>
+        <v>1.282051282051282E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="20" t="n"/>
+      <c r="D6" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="E6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="22" t="n"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="4" t="n"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="28" t="n"/>
-      <c r="E7" s="28" t="n">
+      <c r="D7" s="28">
+        <v>0.875</v>
+      </c>
+      <c r="E7" s="28">
         <v>0.5</v>
       </c>
-      <c r="F7" s="22" t="n"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="4" t="n"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="20" t="n"/>
-      <c r="E8" s="20" t="n">
+      <c r="D8" s="20">
+        <v>359</v>
+      </c>
+      <c r="E8" s="20">
         <v>411</v>
       </c>
       <c r="F8" s="21">
         <f>(D8-E8)/E8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="4" t="n"/>
+        <v>-0.12652068126520682</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20" t="n"/>
-      <c r="E9" s="20" t="n"/>
-      <c r="F9" s="22" t="n"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="4" t="n"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="20" t="n"/>
-      <c r="E10" s="20" t="n">
+      <c r="D10" s="20">
+        <v>10</v>
+      </c>
+      <c r="E10" s="20">
         <v>15</v>
       </c>
       <c r="F10" s="21">
         <f>(D10-E10)/E10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="20" t="n"/>
-      <c r="E11" s="20" t="n"/>
-      <c r="F11" s="21" t="n"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="4" t="n"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="20" t="n">
+      <c r="D12" s="20">
         <v>8</v>
       </c>
-      <c r="E12" s="20" t="n">
+      <c r="E12" s="20">
         <v>26</v>
       </c>
       <c r="F12" s="21">
         <f>(D12-E12)/E12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="4" t="n"/>
+        <v>-0.69230769230769229</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="20" t="n"/>
-      <c r="E13" s="20" t="n">
+      <c r="D13" s="20">
+        <v>2</v>
+      </c>
+      <c r="E13" s="20">
         <v>5</v>
       </c>
       <c r="F13" s="21">
         <f>(D13-E13)/E13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="20" t="n"/>
-      <c r="E14" s="20" t="n"/>
-      <c r="F14" s="21" t="n"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="4" t="n"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="20" t="n"/>
-      <c r="E15" s="20" t="n">
+      <c r="D15" s="20">
+        <v>235</v>
+      </c>
+      <c r="E15" s="20">
         <v>38</v>
       </c>
       <c r="F15" s="21">
         <f>(D15-E15)/E15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="4" t="n"/>
+        <v>5.1842105263157894</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="20" t="n"/>
-      <c r="E16" s="20" t="n">
+      <c r="D16" s="20">
+        <v>2</v>
+      </c>
+      <c r="E16" s="20">
         <v>1</v>
       </c>
       <c r="F16" s="21">
         <f>(D16-E16)/E16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="4" t="n"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="20" t="n"/>
-      <c r="E17" s="20" t="n">
+      <c r="D17" s="20">
+        <f>D15/D16</f>
+        <v>117.5</v>
+      </c>
+      <c r="E17" s="20">
         <v>38</v>
       </c>
       <c r="F17" s="21">
         <f>(D17-E17)/E17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>2.0921052631578947</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="23" t="n"/>
-      <c r="E18" s="23" t="n"/>
-      <c r="F18" s="21" t="n"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="C18" s="5"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="13" t="n"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="24" t="n">
+      <c r="D19" s="24">
         <v>0</v>
       </c>
-      <c r="E19" s="24" t="n">
+      <c r="E19" s="24">
         <v>0</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="21" t="e">
         <f>(D19-E19)/E19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="13" t="n"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="20" t="n">
+      <c r="D20" s="20">
         <v>1568</v>
       </c>
-      <c r="E20" s="20" t="n">
+      <c r="E20" s="20">
         <v>1973</v>
       </c>
       <c r="F20" s="21">
         <f>(D20-E20)/E20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>-0.20527116066903192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4" t="n"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="20" t="n">
+      <c r="D21" s="20">
         <v>460</v>
       </c>
-      <c r="E21" s="20" t="n">
+      <c r="E21" s="20">
         <v>564</v>
       </c>
       <c r="F21" s="21">
         <f>(D21-E21)/E21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>-0.18439716312056736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4" t="n"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="20" t="n">
+      <c r="D22" s="20">
         <v>1108</v>
       </c>
-      <c r="E22" s="20" t="n">
+      <c r="E22" s="20">
         <v>1409</v>
       </c>
       <c r="F22" s="21">
         <f>(D22-E22)/E22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="19" t="n"/>
-      <c r="B23" s="4" t="n"/>
+        <v>-0.21362668559261888</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="20" t="n">
+      <c r="D23" s="20">
         <v>2068</v>
       </c>
-      <c r="E23" s="20" t="n">
+      <c r="E23" s="20">
         <v>2524</v>
       </c>
       <c r="F23" s="21">
         <f>(D23-E23)/E23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="19" t="n"/>
+        <v>-0.18066561014263074</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
       <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="5" t="n"/>
-      <c r="D24" s="23" t="n"/>
-      <c r="E24" s="23" t="n"/>
-      <c r="F24" s="21" t="n"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="19" t="n"/>
-      <c r="B25" s="4" t="n"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="24" t="n">
+      <c r="D25" s="24">
         <v>0</v>
       </c>
-      <c r="E25" s="24" t="n">
+      <c r="E25" s="24">
         <v>0</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="21" t="e">
         <f>(D25-E25)/E25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="5" t="n"/>
-      <c r="D26" s="20" t="n"/>
-      <c r="E26" s="20" t="n"/>
-      <c r="F26" s="21" t="n"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="C26" s="5"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="4" t="n"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="20" t="n">
+      <c r="D27" s="20">
         <v>16357</v>
       </c>
-      <c r="E27" s="20" t="n">
+      <c r="E27" s="20">
         <v>16361</v>
       </c>
       <c r="F27" s="21">
-        <f>(D27-E27)/E27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <f t="shared" ref="F27:F58" si="0">(D27-E27)/E27</f>
+        <v>-2.444838335065094E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="4" t="n"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="20" t="n">
+      <c r="D28" s="20">
         <v>53</v>
       </c>
-      <c r="E28" s="20" t="n">
+      <c r="E28" s="20">
         <v>106</v>
       </c>
       <c r="F28" s="21">
-        <f>(D28-E28)/E28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="4" t="n"/>
+      <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="20" t="n">
+      <c r="D29" s="20">
         <v>207</v>
       </c>
-      <c r="E29" s="20" t="n">
+      <c r="E29" s="20">
         <v>377</v>
       </c>
       <c r="F29" s="21">
-        <f>(D29-E29)/E29</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-0.45092838196286472</v>
       </c>
       <c r="H29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="4" t="n"/>
+      <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="20" t="n">
+      <c r="D30" s="20">
         <v>5166</v>
       </c>
-      <c r="E30" s="20" t="n">
+      <c r="E30" s="20">
         <v>7423</v>
       </c>
       <c r="F30" s="21">
-        <f>(D30-E30)/E30</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-0.30405496430014817</v>
       </c>
       <c r="H30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="4" t="n"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="20" t="n">
+      <c r="D31" s="20">
         <v>5152</v>
       </c>
-      <c r="E31" s="20" t="n">
+      <c r="E31" s="20">
         <v>7377</v>
       </c>
       <c r="F31" s="21">
-        <f>(D31-E31)/E31</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-0.30161312186525691</v>
       </c>
       <c r="H31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="n"/>
+      <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="20" t="n">
+      <c r="D32" s="20">
         <v>1586</v>
       </c>
-      <c r="E32" s="20" t="n">
+      <c r="E32" s="20">
         <v>2194</v>
       </c>
       <c r="F32" s="21">
-        <f>(D32-E32)/E32</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-0.27711941659070194</v>
       </c>
       <c r="H32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="n"/>
+      <c r="B33" s="4"/>
       <c r="C33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="20" t="n">
+      <c r="D33" s="20">
         <v>0</v>
       </c>
-      <c r="E33" s="20" t="n">
+      <c r="E33" s="20">
         <v>0</v>
       </c>
-      <c r="F33" s="21">
-        <f>(D33-E33)/E33</f>
-        <v/>
+      <c r="F33" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H33" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="4" t="n"/>
+      <c r="B34" s="4"/>
       <c r="C34" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="20" t="n">
+      <c r="D34" s="20">
         <v>696</v>
       </c>
-      <c r="E34" s="20" t="n">
+      <c r="E34" s="20">
         <v>1021</v>
       </c>
       <c r="F34" s="21">
-        <f>(D34-E34)/E34</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-0.31831537708129287</v>
       </c>
       <c r="H34" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="4" t="n"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="20" t="n">
+      <c r="D35" s="20">
         <v>8</v>
       </c>
-      <c r="E35" s="20" t="n">
+      <c r="E35" s="20">
         <v>10</v>
       </c>
       <c r="F35" s="21">
-        <f>(D35-E35)/E35</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="4" t="n"/>
+      <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="20" t="n">
+      <c r="D36" s="20">
         <v>2</v>
       </c>
-      <c r="E36" s="20" t="n">
+      <c r="E36" s="20">
         <v>9</v>
       </c>
       <c r="F36" s="21">
-        <f>(D36-E36)/E36</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>-0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="4" t="n"/>
+      <c r="B37" s="4"/>
       <c r="C37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D37" s="20">
         <f>D36/D35</f>
-        <v/>
-      </c>
-      <c r="E37" s="20" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="20">
         <v>0.9</v>
       </c>
       <c r="F37" s="21">
-        <f>(D37-E37)/E37</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>-0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="4" t="n"/>
+      <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D38" s="20" t="n">
+      <c r="D38" s="20">
         <v>22</v>
       </c>
-      <c r="E38" s="20" t="n">
+      <c r="E38" s="20">
         <v>41</v>
       </c>
       <c r="F38" s="21">
-        <f>(D38-E38)/E38</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>-0.46341463414634149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="4" t="n"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="20">
         <f>D38/D35</f>
-        <v/>
-      </c>
-      <c r="E39" s="20" t="n">
-        <v>4.1</v>
+        <v>2.75</v>
+      </c>
+      <c r="E39" s="20">
+        <v>4.0999999999999996</v>
       </c>
       <c r="F39" s="21">
-        <f>(D39-E39)/E39</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>-0.32926829268292679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="4" t="n"/>
+      <c r="B40" s="4"/>
       <c r="C40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="20" t="n">
+      <c r="D40" s="20">
         <v>352</v>
       </c>
-      <c r="E40" s="20" t="n">
+      <c r="E40" s="20">
         <v>550</v>
       </c>
       <c r="F40" s="21">
-        <f>(D40-E40)/E40</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="4" t="n"/>
+      <c r="B41" s="4"/>
       <c r="C41" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D41" s="20">
         <f>D40/D35</f>
-        <v/>
-      </c>
-      <c r="E41" s="20" t="n">
+        <v>44</v>
+      </c>
+      <c r="E41" s="20">
         <v>55</v>
       </c>
       <c r="F41" s="21">
-        <f>(D41-E41)/E41</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="4" t="n"/>
+      <c r="B42" s="4"/>
       <c r="C42" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="20" t="n">
+      <c r="D42" s="20">
         <v>579</v>
       </c>
-      <c r="E42" s="20" t="n">
+      <c r="E42" s="20">
         <v>842</v>
       </c>
       <c r="F42" s="21">
-        <f>(D42-E42)/E42</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-0.31235154394299286</v>
       </c>
       <c r="H42" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="4" t="n"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D43" s="20">
         <f>D42/D35</f>
-        <v/>
-      </c>
-      <c r="E43" s="20" t="n">
+        <v>72.375</v>
+      </c>
+      <c r="E43" s="20">
         <v>84.2</v>
       </c>
       <c r="F43" s="21">
-        <f>(D43-E43)/E43</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>-0.14043942992874112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="4" t="n"/>
+      <c r="B44" s="4"/>
       <c r="C44" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D44" s="20" t="n">
+      <c r="D44" s="20">
         <v>2</v>
       </c>
-      <c r="E44" s="20" t="n">
+      <c r="E44" s="20">
         <v>2</v>
       </c>
       <c r="F44" s="21">
-        <f>(D44-E44)/E44</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="4" t="n"/>
+      <c r="B45" s="4"/>
       <c r="C45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="20" t="n">
+      <c r="D45" s="20">
         <v>1278</v>
       </c>
-      <c r="E45" s="20" t="n">
+      <c r="E45" s="20">
         <v>853</v>
       </c>
       <c r="F45" s="21">
-        <f>(D45-E45)/E45</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>0.49824150058616645</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="n"/>
+      <c r="B46" s="4"/>
       <c r="C46" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D46" s="20">
         <f>D45/D44</f>
-        <v/>
-      </c>
-      <c r="E46" s="20" t="n">
+        <v>639</v>
+      </c>
+      <c r="E46" s="20">
         <v>426.5</v>
       </c>
       <c r="F46" s="21">
-        <f>(D46-E46)/E46</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>0.49824150058616645</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="4" t="n"/>
+      <c r="B47" s="4"/>
       <c r="C47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="20" t="n">
+      <c r="D47" s="20">
         <v>117</v>
       </c>
-      <c r="E47" s="20" t="n">
+      <c r="E47" s="20">
         <v>68</v>
       </c>
       <c r="F47" s="21">
-        <f>(D47-E47)/E47</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>0.72058823529411764</v>
       </c>
       <c r="H47" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="11" t="n"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="20" t="n">
+      <c r="D48" s="20">
         <v>66</v>
       </c>
-      <c r="E48" s="20" t="n">
+      <c r="E48" s="20">
         <v>31</v>
       </c>
       <c r="F48" s="21">
-        <f>(D48-E48)/E48</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>1.1290322580645162</v>
       </c>
       <c r="H48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="20" t="n">
+      <c r="D49" s="20">
         <v>5</v>
       </c>
-      <c r="E49" s="20" t="n">
+      <c r="E49" s="20">
         <v>8</v>
       </c>
       <c r="F49" s="21">
-        <f>(D49-E49)/E49</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="20" t="n">
+      <c r="D50" s="20">
         <v>3191</v>
       </c>
-      <c r="E50" s="20" t="n">
+      <c r="E50" s="20">
         <v>6189</v>
       </c>
       <c r="F50" s="21">
-        <f>(D50-E50)/E50</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>-0.48440782032638552</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
         <v>45</v>
       </c>
@@ -1671,95 +1710,95 @@
       </c>
       <c r="D51" s="20">
         <f>D50/D49</f>
-        <v/>
-      </c>
-      <c r="E51" s="20" t="n">
+        <v>638.20000000000005</v>
+      </c>
+      <c r="E51" s="20">
         <v>773.625</v>
       </c>
       <c r="F51" s="21">
-        <f>(D51-E51)/E51</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <f t="shared" si="0"/>
+        <v>-0.17505251252221679</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="20" t="n">
+      <c r="D52" s="20">
         <v>426</v>
       </c>
-      <c r="E52" s="20" t="n">
+      <c r="E52" s="20">
         <v>774</v>
       </c>
       <c r="F52" s="21">
-        <f>(D52-E52)/E52</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-0.44961240310077522</v>
       </c>
       <c r="H52" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="20" t="n">
+      <c r="D53" s="20">
         <v>315</v>
       </c>
-      <c r="E53" s="20" t="n">
+      <c r="E53" s="20">
         <v>534</v>
       </c>
       <c r="F53" s="21">
-        <f>(D53-E53)/E53</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>-0.4101123595505618</v>
       </c>
       <c r="H53" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="20" t="n">
+      <c r="D54" s="20">
         <v>1</v>
       </c>
-      <c r="E54" s="20" t="n">
+      <c r="E54" s="20">
         <v>0</v>
       </c>
-      <c r="F54" s="21">
-        <f>(D54-E54)/E54</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="F54" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="20" t="n">
+      <c r="D55" s="20">
         <v>379</v>
       </c>
-      <c r="E55" s="20" t="n">
+      <c r="E55" s="20">
         <v>0</v>
       </c>
-      <c r="F55" s="21">
-        <f>(D55-E55)/E55</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="F55" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="19" t="s">
         <v>45</v>
       </c>
@@ -1768,89 +1807,89 @@
       </c>
       <c r="D56" s="20">
         <f>D55/D54</f>
-        <v/>
+        <v>379</v>
       </c>
       <c r="E56" s="20" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="F56" s="21">
-        <f>(D56-E56)/E56</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="F56" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="20" t="n">
+      <c r="D57" s="20">
         <v>36</v>
       </c>
-      <c r="E57" s="20" t="n">
+      <c r="E57" s="20">
         <v>0</v>
       </c>
-      <c r="F57" s="21">
-        <f>(D57-E57)/E57</f>
-        <v/>
+      <c r="F57" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="19" t="n"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="19"/>
       <c r="C58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="20" t="n">
+      <c r="D58" s="20">
         <v>19</v>
       </c>
-      <c r="E58" s="20" t="n">
+      <c r="E58" s="20">
         <v>0</v>
       </c>
-      <c r="F58" s="21">
-        <f>(D58-E58)/E58</f>
-        <v/>
+      <c r="F58" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="H58" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
         <v>77</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="20" t="n"/>
-      <c r="E59" s="20" t="n"/>
-      <c r="F59" s="21" t="n"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D60" s="20" t="n">
+      <c r="D60" s="20">
         <v>3153</v>
       </c>
-      <c r="E60" s="20" t="n">
+      <c r="E60" s="20">
         <v>3166</v>
       </c>
       <c r="F60" s="21">
-        <f>(D60-E60)/E60</f>
-        <v/>
+        <f t="shared" ref="F60:F69" si="1">(D60-E60)/E60</f>
+        <v>-4.1061276058117499E-3</v>
       </c>
       <c r="H60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
         <v>81</v>
       </c>
@@ -1859,56 +1898,56 @@
       </c>
       <c r="D61" s="20">
         <f>D60-E60</f>
-        <v/>
-      </c>
-      <c r="E61" s="20" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E61" s="20">
         <v>44</v>
       </c>
       <c r="F61" s="21">
-        <f>(D61-E61)/E61</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>-1.2954545454545454</v>
       </c>
       <c r="H61" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="20" t="n">
+      <c r="D62" s="20">
         <v>5</v>
       </c>
-      <c r="E62" s="20" t="n">
+      <c r="E62" s="20">
         <v>6</v>
       </c>
       <c r="F62" s="21">
-        <f>(D62-E62)/E62</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>-0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="20" t="n">
+      <c r="D63" s="20">
         <v>766</v>
       </c>
-      <c r="E63" s="20" t="n">
+      <c r="E63" s="20">
         <v>828</v>
       </c>
       <c r="F63" s="21">
-        <f>(D63-E63)/E63</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>-7.4879227053140096E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>81</v>
       </c>
@@ -1917,35 +1956,35 @@
       </c>
       <c r="D64" s="20">
         <f>D63/D62</f>
-        <v/>
-      </c>
-      <c r="E64" s="20" t="n">
+        <v>153.19999999999999</v>
+      </c>
+      <c r="E64" s="20">
         <v>138</v>
       </c>
       <c r="F64" s="21">
-        <f>(D64-E64)/E64</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>0.1101449275362318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>81</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="20" t="n">
+      <c r="D65" s="20">
         <v>58</v>
       </c>
-      <c r="E65" s="20" t="n">
+      <c r="E65" s="20">
         <v>52</v>
       </c>
       <c r="F65" s="21">
-        <f>(D65-E65)/E65</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>0.11538461538461539</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>81</v>
       </c>
@@ -1954,75 +1993,75 @@
       </c>
       <c r="D66" s="20">
         <f>D65/D62</f>
-        <v/>
-      </c>
-      <c r="E66" s="20" t="n">
-        <v>8.666666666666666</v>
+        <v>11.6</v>
+      </c>
+      <c r="E66" s="20">
+        <v>8.6666666666666661</v>
       </c>
       <c r="F66" s="21">
-        <f>(D66-E66)/E66</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>0.33846153846153854</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="20" t="n">
+      <c r="D67" s="20">
         <v>1</v>
       </c>
-      <c r="E67" s="20" t="n">
+      <c r="E67" s="20">
         <v>0</v>
       </c>
-      <c r="F67" s="21">
-        <f>(D67-E67)/E67</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="F67" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>77</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="20" t="n">
-        <v>733</v>
-      </c>
-      <c r="E68" s="20" t="n">
+      <c r="D68" s="20">
+        <v>746</v>
+      </c>
+      <c r="E68" s="20">
         <v>0</v>
       </c>
-      <c r="F68" s="21">
-        <f>(D68-E68)/E68</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="F68" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D69" s="20">
         <f>D68/D67</f>
-        <v/>
+        <v>746</v>
       </c>
       <c r="E69" s="20" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="F69" s="21">
-        <f>(D69-E69)/E69</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="C88" s="26" t="n">
+      <c r="F69" s="21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C88" s="26">
         <v>43160</v>
       </c>
       <c r="D88">
         <f>YEAR(C1)</f>
-        <v/>
+        <v>1900</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>5</v>
@@ -2031,18 +2070,18 @@
         <v>6</v>
       </c>
       <c r="G88">
-        <f>D3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <f t="shared" ref="G88:G95" si="2">D3</f>
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C89" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" ref="C89:C120" si="3">$C$88</f>
+        <v>43160</v>
       </c>
       <c r="D89">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" ref="D89:D120" si="4">$D$88</f>
+        <v>1900</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
@@ -2051,18 +2090,18 @@
         <v>7</v>
       </c>
       <c r="G89">
-        <f>D4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C90" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D90">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>5</v>
@@ -2071,18 +2110,18 @@
         <v>8</v>
       </c>
       <c r="G90">
-        <f>D5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C91" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D91">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
@@ -2090,19 +2129,19 @@
       <c r="F91" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G91">
-        <f>D6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="G91" t="str">
+        <f t="shared" si="2"/>
+        <v>Quinta-Feira</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C92" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D92">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>5</v>
@@ -2111,18 +2150,18 @@
         <v>11</v>
       </c>
       <c r="G92" s="27">
-        <f>D7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="93" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C93" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D93">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>5</v>
@@ -2131,18 +2170,18 @@
         <v>12</v>
       </c>
       <c r="G93">
-        <f>D8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C94" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D94">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
@@ -2151,18 +2190,18 @@
         <v>13</v>
       </c>
       <c r="G94">
-        <f>D9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C95" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D95">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>5</v>
@@ -2171,18 +2210,18 @@
         <v>14</v>
       </c>
       <c r="G95">
-        <f>D10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C96" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D96">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>15</v>
@@ -2192,17 +2231,17 @@
       </c>
       <c r="G96">
         <f>D12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C97" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D97">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>15</v>
@@ -2212,17 +2251,17 @@
       </c>
       <c r="G97">
         <f>D13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C98" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D98">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>18</v>
@@ -2232,17 +2271,17 @@
       </c>
       <c r="G98">
         <f>D15</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C99" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D99">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>18</v>
@@ -2252,17 +2291,17 @@
       </c>
       <c r="G99">
         <f>D16</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C100" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D100">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>18</v>
@@ -2272,17 +2311,17 @@
       </c>
       <c r="G100">
         <f>D17</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>117.5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C101" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D101">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>23</v>
@@ -2292,17 +2331,17 @@
       </c>
       <c r="G101">
         <f>D19</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C102" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D102">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>23</v>
@@ -2312,17 +2351,17 @@
       </c>
       <c r="G102">
         <f>D20</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C103" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D103">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>23</v>
@@ -2332,17 +2371,17 @@
       </c>
       <c r="G103">
         <f>D21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C104" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D104">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>23</v>
@@ -2352,17 +2391,17 @@
       </c>
       <c r="G104">
         <f>D22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C105" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D105">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>23</v>
@@ -2372,17 +2411,17 @@
       </c>
       <c r="G105">
         <f>D23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C106" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D106">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E106" s="9" t="s">
         <v>30</v>
@@ -2392,17 +2431,17 @@
       </c>
       <c r="G106" s="25">
         <f>D25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C107" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D107">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E107" s="10" t="s">
         <v>32</v>
@@ -2411,18 +2450,18 @@
         <v>33</v>
       </c>
       <c r="G107">
-        <f>D27</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <f t="shared" ref="G107:G138" si="5">D27</f>
+        <v>16357</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C108" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D108">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E108" s="10" t="s">
         <v>32</v>
@@ -2431,18 +2470,18 @@
         <v>34</v>
       </c>
       <c r="G108">
-        <f>D28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C109" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D109">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E109" s="10" t="s">
         <v>32</v>
@@ -2451,18 +2490,18 @@
         <v>35</v>
       </c>
       <c r="G109">
-        <f>D29</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C110" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D110">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E110" s="10" t="s">
         <v>32</v>
@@ -2471,18 +2510,18 @@
         <v>37</v>
       </c>
       <c r="G110">
-        <f>D30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C111" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D111">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>32</v>
@@ -2491,18 +2530,18 @@
         <v>39</v>
       </c>
       <c r="G111">
-        <f>D31</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C112" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D112">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>32</v>
@@ -2511,18 +2550,18 @@
         <v>41</v>
       </c>
       <c r="G112">
-        <f>D32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C113" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D113">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E113" s="10" t="s">
         <v>32</v>
@@ -2531,18 +2570,18 @@
         <v>43</v>
       </c>
       <c r="G113">
-        <f>D33</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C114" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D114">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E114" s="10" t="s">
         <v>32</v>
@@ -2551,18 +2590,18 @@
         <v>46</v>
       </c>
       <c r="G114">
-        <f>D34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C115" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D115">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E115" s="10" t="s">
         <v>32</v>
@@ -2571,18 +2610,18 @@
         <v>49</v>
       </c>
       <c r="G115">
-        <f>D35</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C116" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D116">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E116" s="10" t="s">
         <v>32</v>
@@ -2591,18 +2630,18 @@
         <v>50</v>
       </c>
       <c r="G116">
-        <f>D36</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C117" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D117">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E117" s="10" t="s">
         <v>32</v>
@@ -2611,18 +2650,18 @@
         <v>51</v>
       </c>
       <c r="G117">
-        <f>D37</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C118" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D118">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E118" s="10" t="s">
         <v>32</v>
@@ -2631,18 +2670,18 @@
         <v>52</v>
       </c>
       <c r="G118">
-        <f>D38</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C119" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D119">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E119" s="10" t="s">
         <v>32</v>
@@ -2651,18 +2690,18 @@
         <v>53</v>
       </c>
       <c r="G119">
-        <f>D39</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C120" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>43160</v>
       </c>
       <c r="D120">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="4"/>
+        <v>1900</v>
       </c>
       <c r="E120" s="10" t="s">
         <v>32</v>
@@ -2671,18 +2710,18 @@
         <v>54</v>
       </c>
       <c r="G120">
-        <f>D40</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C121" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" ref="C121:C148" si="6">$C$88</f>
+        <v>43160</v>
       </c>
       <c r="D121">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" ref="D121:D148" si="7">$D$88</f>
+        <v>1900</v>
       </c>
       <c r="E121" s="10" t="s">
         <v>32</v>
@@ -2691,18 +2730,18 @@
         <v>56</v>
       </c>
       <c r="G121">
-        <f>D41</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C122" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D122">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E122" s="10" t="s">
         <v>32</v>
@@ -2711,18 +2750,18 @@
         <v>57</v>
       </c>
       <c r="G122">
-        <f>D42</f>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>579</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C123" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D123">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E123" s="10" t="s">
         <v>32</v>
@@ -2731,18 +2770,18 @@
         <v>59</v>
       </c>
       <c r="G123">
-        <f>D43</f>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>72.375</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C124" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D124">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>32</v>
@@ -2751,18 +2790,18 @@
         <v>60</v>
       </c>
       <c r="G124">
-        <f>D44</f>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C125" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D125">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E125" s="10" t="s">
         <v>32</v>
@@ -2771,18 +2810,18 @@
         <v>61</v>
       </c>
       <c r="G125">
-        <f>D45</f>
-        <v/>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C126" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D126">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E126" s="10" t="s">
         <v>32</v>
@@ -2791,18 +2830,18 @@
         <v>62</v>
       </c>
       <c r="G126">
-        <f>D46</f>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C127" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D127">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E127" s="10" t="s">
         <v>32</v>
@@ -2811,18 +2850,18 @@
         <v>63</v>
       </c>
       <c r="G127">
-        <f>D47</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C128" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D128">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E128" s="10" t="s">
         <v>32</v>
@@ -2831,18 +2870,18 @@
         <v>65</v>
       </c>
       <c r="G128">
-        <f>D48</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C129" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D129">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E129" s="10" t="s">
         <v>32</v>
@@ -2851,18 +2890,18 @@
         <v>67</v>
       </c>
       <c r="G129">
-        <f>D49</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C130" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D130">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E130" s="10" t="s">
         <v>32</v>
@@ -2871,18 +2910,18 @@
         <v>68</v>
       </c>
       <c r="G130">
-        <f>D50</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C131" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D131">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E131" s="10" t="s">
         <v>32</v>
@@ -2891,18 +2930,18 @@
         <v>69</v>
       </c>
       <c r="G131">
-        <f>D51</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>638.20000000000005</v>
+      </c>
+    </row>
+    <row r="132" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C132" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D132">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E132" s="10" t="s">
         <v>32</v>
@@ -2911,18 +2950,18 @@
         <v>70</v>
       </c>
       <c r="G132">
-        <f>D52</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="133" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C133" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D133">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E133" s="10" t="s">
         <v>32</v>
@@ -2931,18 +2970,18 @@
         <v>71</v>
       </c>
       <c r="G133">
-        <f>D53</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="134" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C134" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D134">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E134" s="10" t="s">
         <v>32</v>
@@ -2951,18 +2990,18 @@
         <v>72</v>
       </c>
       <c r="G134">
-        <f>D54</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C135" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D135">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E135" s="10" t="s">
         <v>32</v>
@@ -2971,18 +3010,18 @@
         <v>73</v>
       </c>
       <c r="G135">
-        <f>D55</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="136" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C136" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D136">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E136" s="10" t="s">
         <v>32</v>
@@ -2991,18 +3030,18 @@
         <v>74</v>
       </c>
       <c r="G136">
-        <f>D56</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C137" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D137">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E137" s="10" t="s">
         <v>32</v>
@@ -3011,18 +3050,18 @@
         <v>75</v>
       </c>
       <c r="G137">
-        <f>D57</f>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="138" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C138" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D138">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E138" s="10" t="s">
         <v>32</v>
@@ -3031,18 +3070,18 @@
         <v>76</v>
       </c>
       <c r="G138">
-        <f>D58</f>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C139" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D139">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E139" s="12" t="s">
         <v>78</v>
@@ -3051,18 +3090,18 @@
         <v>79</v>
       </c>
       <c r="G139">
-        <f>D60</f>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <f t="shared" ref="G139:G148" si="8">D60</f>
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="140" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C140" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D140">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E140" s="12" t="s">
         <v>78</v>
@@ -3071,18 +3110,18 @@
         <v>82</v>
       </c>
       <c r="G140">
-        <f>D61</f>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <f t="shared" si="8"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="141" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C141" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D141">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E141" s="12" t="s">
         <v>78</v>
@@ -3091,18 +3130,18 @@
         <v>84</v>
       </c>
       <c r="G141">
-        <f>D62</f>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C142" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D142">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>78</v>
@@ -3111,18 +3150,18 @@
         <v>85</v>
       </c>
       <c r="G142">
-        <f>D63</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <f t="shared" si="8"/>
+        <v>766</v>
+      </c>
+    </row>
+    <row r="143" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C143" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D143">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E143" s="12" t="s">
         <v>78</v>
@@ -3131,18 +3170,18 @@
         <v>86</v>
       </c>
       <c r="G143">
-        <f>D64</f>
-        <v/>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <f t="shared" si="8"/>
+        <v>153.19999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C144" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D144">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E144" s="12" t="s">
         <v>78</v>
@@ -3151,18 +3190,18 @@
         <v>52</v>
       </c>
       <c r="G144">
-        <f>D65</f>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C145" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D145">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E145" s="12" t="s">
         <v>78</v>
@@ -3171,18 +3210,18 @@
         <v>87</v>
       </c>
       <c r="G145">
-        <f>D66</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <f t="shared" si="8"/>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C146" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D146">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E146" s="12" t="s">
         <v>78</v>
@@ -3191,18 +3230,18 @@
         <v>88</v>
       </c>
       <c r="G146">
-        <f>D67</f>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C147" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D147">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E147" s="12" t="s">
         <v>78</v>
@@ -3211,18 +3250,18 @@
         <v>29</v>
       </c>
       <c r="G147">
-        <f>D68</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <f t="shared" si="8"/>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C148" s="26">
-        <f>$C$88</f>
-        <v/>
+        <f t="shared" si="6"/>
+        <v>43160</v>
       </c>
       <c r="D148">
-        <f>$D$88</f>
-        <v/>
+        <f t="shared" si="7"/>
+        <v>1900</v>
       </c>
       <c r="E148" s="12" t="s">
         <v>78</v>
@@ -3231,13 +3270,13 @@
         <v>89</v>
       </c>
       <c r="G148">
-        <f>D69</f>
-        <v/>
+        <f t="shared" si="8"/>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:F69">
-    <cfRule priority="4" type="colorScale">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3249,7 +3288,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F69">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3260,7 +3299,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>